--- a/dashboards/dashboard_2026-02-17.xlsx
+++ b/dashboards/dashboard_2026-02-17.xlsx
@@ -8,11 +8,14 @@
   </bookViews>
   <sheets>
     <sheet name="Banking_prices" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="Banking_returns" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="Aviation_prices" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="Aviation_returns" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet name="Consumer_prices" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet name="Consumer_returns" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet name="Banking_yearly" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="Banking_monthly" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="Aviation_prices" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="Aviation_yearly" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="Aviation_monthly" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet name="Consumer_prices" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet name="Consumer_yearly" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet name="Consumer_monthly" sheetId="9" state="visible" r:id="rId9"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -3951,7 +3954,7 @@
       </c>
       <c r="B1" t="inlineStr">
         <is>
-          <t>Return %</t>
+          <t>1Y Return %</t>
         </is>
       </c>
     </row>
@@ -3991,6 +3994,249 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D14"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>Date</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>HDFCBANK.NS</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>ICICIBANK.NS</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>SBIN.NS</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>2025-Feb</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr"/>
+      <c r="C2" t="inlineStr"/>
+      <c r="D2" t="inlineStr"/>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>2025-Mar</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>5.529893164451694</v>
+      </c>
+      <c r="C3" t="n">
+        <v>11.97989387297838</v>
+      </c>
+      <c r="D3" t="n">
+        <v>12.00638407340546</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>2025-Apr</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>5.294827221587783</v>
+      </c>
+      <c r="C4" t="n">
+        <v>5.833061006799856</v>
+      </c>
+      <c r="D4" t="n">
+        <v>2.222945660637854</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>2025-May</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>1.033768582553751</v>
+      </c>
+      <c r="C5" t="n">
+        <v>1.317454786761307</v>
+      </c>
+      <c r="D5" t="n">
+        <v>5.066963524449863</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>2025-Jun</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>4.042300662615306</v>
+      </c>
+      <c r="C6" t="n">
+        <v>0</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.9910116845921246</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>2025-Jul</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>1.085298864540896</v>
+      </c>
+      <c r="C7" t="n">
+        <v>2.462303156431322</v>
+      </c>
+      <c r="D7" t="n">
+        <v>-2.901199305329349</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>2025-Aug</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>-5.698147001402154</v>
+      </c>
+      <c r="C8" t="n">
+        <v>-4.915248706125618</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0.7469728577257584</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>2025-Sep</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>-0.06304913843320215</v>
+      </c>
+      <c r="C9" t="n">
+        <v>-3.562744819609642</v>
+      </c>
+      <c r="D9" t="n">
+        <v>8.716512424552182</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>2025-Oct</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>3.817033416715954</v>
+      </c>
+      <c r="C10" t="n">
+        <v>-0.2002931136405817</v>
+      </c>
+      <c r="D10" t="n">
+        <v>7.398703294149422</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>2025-Nov</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>2.056111419422568</v>
+      </c>
+      <c r="C11" t="n">
+        <v>3.233479403936124</v>
+      </c>
+      <c r="D11" t="n">
+        <v>4.482390608324449</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>2025-Dec</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>-1.627626416859462</v>
+      </c>
+      <c r="C12" t="n">
+        <v>-3.305013162463033</v>
+      </c>
+      <c r="D12" t="n">
+        <v>0.3268653939766386</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>2026-Jan</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>-6.250001154569373</v>
+      </c>
+      <c r="C13" t="n">
+        <v>0.9010332389573827</v>
+      </c>
+      <c r="D13" t="n">
+        <v>9.667075038380002</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>2026-Feb</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>-0.3820272039783412</v>
+      </c>
+      <c r="C14" t="n">
+        <v>3.874538745387457</v>
+      </c>
+      <c r="D14" t="n">
+        <v>12.64912007722563</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -6258,7 +6504,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -6280,7 +6526,7 @@
       </c>
       <c r="B1" t="inlineStr">
         <is>
-          <t>Return %</t>
+          <t>1Y Return %</t>
         </is>
       </c>
     </row>
@@ -6307,7 +6553,184 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:C14"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>Date</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>INDIGO.NS</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>SPICEJET.NS</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>2025-Feb</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr"/>
+      <c r="C2" t="inlineStr"/>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>2025-Mar</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>14.25077733429423</v>
+      </c>
+      <c r="C3" t="inlineStr"/>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>2025-Apr</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>2.622501771992969</v>
+      </c>
+      <c r="C4" t="inlineStr"/>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>2025-May</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>1.533471246517348</v>
+      </c>
+      <c r="C5" t="inlineStr"/>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>2025-Jun</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>12.1294628895783</v>
+      </c>
+      <c r="C6" t="inlineStr"/>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>2025-Jul</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>-1.104325536901973</v>
+      </c>
+      <c r="C7" t="inlineStr"/>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>2025-Aug</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>-4.313660975996669</v>
+      </c>
+      <c r="C8" t="inlineStr"/>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>2025-Sep</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>-0.9121501948281985</v>
+      </c>
+      <c r="C9" t="inlineStr"/>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>2025-Oct</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>0.5451783001161781</v>
+      </c>
+      <c r="C10" t="inlineStr"/>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>2025-Nov</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>4.915555555555562</v>
+      </c>
+      <c r="C11" t="inlineStr"/>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>2025-Dec</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>-14.2675590951453</v>
+      </c>
+      <c r="C12" t="inlineStr"/>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>2026-Jan</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>-9.151101887538292</v>
+      </c>
+      <c r="C13" t="inlineStr"/>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>2026-Feb</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>8.278037637332748</v>
+      </c>
+      <c r="C14" t="inlineStr"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -6365,7 +6788,7 @@
         <v>45707</v>
       </c>
       <c r="B4" t="n">
-        <v>2209.611083984375</v>
+        <v>2209.61083984375</v>
       </c>
       <c r="C4" t="n">
         <v>390.8560791015625</v>
@@ -6376,7 +6799,7 @@
         <v>45708</v>
       </c>
       <c r="B5" t="n">
-        <v>2207.3037109375</v>
+        <v>2207.303466796875</v>
       </c>
       <c r="C5" t="n">
         <v>386.6724548339844</v>
@@ -6387,7 +6810,7 @@
         <v>45709</v>
       </c>
       <c r="B6" t="n">
-        <v>2201.019287109375</v>
+        <v>2201.01953125</v>
       </c>
       <c r="C6" t="n">
         <v>385.5664672851562</v>
@@ -6420,7 +6843,7 @@
         <v>45715</v>
       </c>
       <c r="B9" t="n">
-        <v>2204.259765625</v>
+        <v>2204.259521484375</v>
       </c>
       <c r="C9" t="n">
         <v>386.2397155761719</v>
@@ -6431,7 +6854,7 @@
         <v>45716</v>
       </c>
       <c r="B10" t="n">
-        <v>2150.551025390625</v>
+        <v>2150.55126953125</v>
       </c>
       <c r="C10" t="n">
         <v>379.8921203613281</v>
@@ -6442,7 +6865,7 @@
         <v>45719</v>
       </c>
       <c r="B11" t="n">
-        <v>2137.394287109375</v>
+        <v>2137.39404296875</v>
       </c>
       <c r="C11" t="n">
         <v>382.2484130859375</v>
@@ -6464,7 +6887,7 @@
         <v>45721</v>
       </c>
       <c r="B13" t="n">
-        <v>2131.10986328125</v>
+        <v>2131.110107421875</v>
       </c>
       <c r="C13" t="n">
         <v>389.5577087402344</v>
@@ -6497,7 +6920,7 @@
         <v>45726</v>
       </c>
       <c r="B16" t="n">
-        <v>2207.0087890625</v>
+        <v>2207.009033203125</v>
       </c>
       <c r="C16" t="n">
         <v>389.5096435546875</v>
@@ -6706,7 +7129,7 @@
         <v>45755</v>
       </c>
       <c r="B35" t="n">
-        <v>2247.756591796875</v>
+        <v>2247.7568359375</v>
       </c>
       <c r="C35" t="n">
         <v>396.7708435058594</v>
@@ -6717,7 +7140,7 @@
         <v>45756</v>
       </c>
       <c r="B36" t="n">
-        <v>2307.40576171875</v>
+        <v>2307.405517578125</v>
       </c>
       <c r="C36" t="n">
         <v>400.37744140625</v>
@@ -6728,7 +7151,7 @@
         <v>45758</v>
       </c>
       <c r="B37" t="n">
-        <v>2323.262939453125</v>
+        <v>2323.2626953125</v>
       </c>
       <c r="C37" t="n">
         <v>405.4266357421875</v>
@@ -6761,7 +7184,7 @@
         <v>45764</v>
       </c>
       <c r="B40" t="n">
-        <v>2331.952392578125</v>
+        <v>2331.95263671875</v>
       </c>
       <c r="C40" t="n">
         <v>410.9086303710938</v>
@@ -6783,7 +7206,7 @@
         <v>45769</v>
       </c>
       <c r="B42" t="n">
-        <v>2355.222900390625</v>
+        <v>2355.22314453125</v>
       </c>
       <c r="C42" t="n">
         <v>417.0157470703125</v>
@@ -6794,7 +7217,7 @@
         <v>45770</v>
       </c>
       <c r="B43" t="n">
-        <v>2379.867919921875</v>
+        <v>2379.8681640625</v>
       </c>
       <c r="C43" t="n">
         <v>414.3709411621094</v>
@@ -6805,7 +7228,7 @@
         <v>45771</v>
       </c>
       <c r="B44" t="n">
-        <v>2283.153564453125</v>
+        <v>2283.1533203125</v>
       </c>
       <c r="C44" t="n">
         <v>413.6015319824219</v>
@@ -6827,7 +7250,7 @@
         <v>45775</v>
       </c>
       <c r="B46" t="n">
-        <v>2276.57470703125</v>
+        <v>2276.574951171875</v>
       </c>
       <c r="C46" t="n">
         <v>412.3993530273438</v>
@@ -6860,7 +7283,7 @@
         <v>45779</v>
       </c>
       <c r="B49" t="n">
-        <v>2276.57470703125</v>
+        <v>2276.574951171875</v>
       </c>
       <c r="C49" t="n">
         <v>413.0725708007812</v>
@@ -6871,7 +7294,7 @@
         <v>45782</v>
       </c>
       <c r="B50" t="n">
-        <v>2306.03125</v>
+        <v>2306.031005859375</v>
       </c>
       <c r="C50" t="n">
         <v>420.2376403808594</v>
@@ -6893,7 +7316,7 @@
         <v>45784</v>
       </c>
       <c r="B52" t="n">
-        <v>2327.82861328125</v>
+        <v>2327.828857421875</v>
       </c>
       <c r="C52" t="n">
         <v>414.6594543457031</v>
@@ -6937,7 +7360,7 @@
         <v>45790</v>
       </c>
       <c r="B56" t="n">
-        <v>2317.224609375</v>
+        <v>2317.224365234375</v>
       </c>
       <c r="C56" t="n">
         <v>411.5337524414062</v>
@@ -6948,7 +7371,7 @@
         <v>45791</v>
       </c>
       <c r="B57" t="n">
-        <v>2307.896728515625</v>
+        <v>2307.896484375</v>
       </c>
       <c r="C57" t="n">
         <v>412.6878662109375</v>
@@ -6970,7 +7393,7 @@
         <v>45793</v>
       </c>
       <c r="B59" t="n">
-        <v>2338.236572265625</v>
+        <v>2338.236328125</v>
       </c>
       <c r="C59" t="n">
         <v>419.0354614257812</v>
@@ -6992,7 +7415,7 @@
         <v>45797</v>
       </c>
       <c r="B61" t="n">
-        <v>2298.6669921875</v>
+        <v>2298.667236328125</v>
       </c>
       <c r="C61" t="n">
         <v>418.2660522460938</v>
@@ -7025,7 +7448,7 @@
         <v>45800</v>
       </c>
       <c r="B64" t="n">
-        <v>2316.43896484375</v>
+        <v>2316.438720703125</v>
       </c>
       <c r="C64" t="n">
         <v>419.6124877929688</v>
@@ -7058,7 +7481,7 @@
         <v>45805</v>
       </c>
       <c r="B67" t="n">
-        <v>2319.18798828125</v>
+        <v>2319.188232421875</v>
       </c>
       <c r="C67" t="n">
         <v>411.5744018554688</v>
@@ -7080,7 +7503,7 @@
         <v>45807</v>
       </c>
       <c r="B69" t="n">
-        <v>2305.736328125</v>
+        <v>2305.736572265625</v>
       </c>
       <c r="C69" t="n">
         <v>409.468505859375</v>
@@ -7135,7 +7558,7 @@
         <v>45814</v>
       </c>
       <c r="B74" t="n">
-        <v>2346.484130859375</v>
+        <v>2346.484375</v>
       </c>
       <c r="C74" t="n">
         <v>412.4069213867188</v>
@@ -7146,7 +7569,7 @@
         <v>45817</v>
       </c>
       <c r="B75" t="n">
-        <v>2349.82275390625</v>
+        <v>2349.822509765625</v>
       </c>
       <c r="C75" t="n">
         <v>414.3658752441406</v>
@@ -7245,7 +7668,7 @@
         <v>45828</v>
       </c>
       <c r="B84" t="n">
-        <v>2264.3994140625</v>
+        <v>2264.399658203125</v>
       </c>
       <c r="C84" t="n">
         <v>409.9582214355469</v>
@@ -9071,7 +9494,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -9093,7 +9516,7 @@
       </c>
       <c r="B1" t="inlineStr">
         <is>
-          <t>Return %</t>
+          <t>1Y Return %</t>
         </is>
       </c>
     </row>
@@ -9120,4 +9543,205 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:C14"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>Date</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>HINDUNILVR.NS</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>ITC.NS</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>2025-Feb</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr"/>
+      <c r="C2" t="inlineStr"/>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>2025-Mar</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>3.132054848763577</v>
+      </c>
+      <c r="C3" t="n">
+        <v>3.734179070965893</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>2025-Apr</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>3.685510014254967</v>
+      </c>
+      <c r="C4" t="n">
+        <v>3.917023480023896</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>2025-May</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>0.2647206891507103</v>
+      </c>
+      <c r="C5" t="n">
+        <v>-0.01113350231813914</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>2025-Jun</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>-1.259193775884004</v>
+      </c>
+      <c r="C6" t="n">
+        <v>-0.3827250812821315</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>2025-Jul</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>9.875356218918817</v>
+      </c>
+      <c r="C7" t="n">
+        <v>-1.080561048717832</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>2025-Aug</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>5.497385443646974</v>
+      </c>
+      <c r="C8" t="n">
+        <v>-0.534046989328063</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>2025-Sep</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>-5.466583444091699</v>
+      </c>
+      <c r="C9" t="n">
+        <v>-2.001228340835759</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>2025-Oct</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>-1.944796442349106</v>
+      </c>
+      <c r="C10" t="n">
+        <v>4.681868017185131</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>2025-Nov</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>0.8310744166545758</v>
+      </c>
+      <c r="C11" t="n">
+        <v>-3.830146930418188</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>2025-Dec</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>-6.109632260847409</v>
+      </c>
+      <c r="C12" t="n">
+        <v>-0.309213083954829</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>2026-Jan</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>2.465568464270129</v>
+      </c>
+      <c r="C13" t="n">
+        <v>-20.06203752790324</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>2026-Feb</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>-2.557941473741043</v>
+      </c>
+      <c r="C14" t="n">
+        <v>3.141606490592075</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>